--- a/scraped_data_page_2.xlsx
+++ b/scraped_data_page_2.xlsx
@@ -483,12 +483,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>"M" CAR GARAGE, Matej Pelc s.p.</t>
+          <t>"BEAUTY" ZDENKA SAVIĆ S.P.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Štajngrova    7, Štajngrova, 2234 Benedikt</t>
+          <t>Ulica mesta Grevenbroich   13, Celje, 3000 Celje</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -502,35 +502,43 @@
           <t>info@bizi.si</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Mikro enote</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>16. 1. 2023</t>
+          <t>22. 4. 1994</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/M-CAR-GARAGE-MATEJ-PELC-S-P/</t>
+          <t>https://www.bizi.si/BEAUTY-ZDENKA-SAVIC-S-P/</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>"VOGRINEC DETAILING", JELKA VOGRINEC s.p.</t>
+          <t>"BIOLAS" SIMONA ŠOŠTARIČ S.P.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lomanoše   23A, Lomanoše, 9250 Gornja Radgona</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
+          <t>Podgorci    4, Podgorci, 2273 Podgorci</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>02 7192329</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr">
         <is>
           <t>Več kontaktov v TIS-u</t>
@@ -538,40 +546,44 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>info@bizi.si</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
+          <t>biolas@amis.net</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Mikro enote</t>
+        </is>
+      </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>4. 11. 2024</t>
+          <t>1. 12. 1995</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/VOGRINEC-DETAILING-JELKA-VOGRINEC-S-P/</t>
+          <t>https://www.bizi.si/BIOLAS-SIMONA-SOSTARIC-S-P/</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>324 d.o.o.</t>
+          <t>"FARAON" PODOBNIK PAVLA S.P.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cesta 8. maja    2, Log pri Brezovici, 1358 Log pri Brezovici</t>
+          <t>Triglavska cesta   53, Radovljica, 4240 Radovljica</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>041 985079</t>
+          <t>04 5312529</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -581,38 +593,46 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>324servis@gmail.com</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
+          <t>info@bizi.si</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Mikro enote</t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>29. 9. 2020</t>
+          <t>27. 5. 1997</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/324-D-O-O/</t>
+          <t>https://www.bizi.si/FARAON-PODOBNIK-PAVLA-S-P/</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3DM, Miha Drožđan s.p.</t>
+          <t>"FIGARO" (FRIZERSKI SALON) ZORAN FREIBERG S.P.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mrtvice   49, Mrtvice, 8273 Leskovec pri Krškem</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
+          <t>Bazoviška ulica   18, Nova Gorica, 5000 Nova Gorica</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>040 849114</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr">
         <is>
           <t>Več kontaktov v TIS-u</t>
@@ -623,35 +643,43 @@
           <t>info@bizi.si</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Mikro enote</t>
+        </is>
+      </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1. 2. 2023</t>
+          <t>17. 1. 1994</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/3DM-MIHA-DROZDAN-S-P/</t>
+          <t>https://www.bizi.si/FIGARO-FRIZERSKI-SALON-ZORAN-FREIBERG-S-P/</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3S &amp; 3S, Alojz Tičar s.p.</t>
+          <t>"FRIZERSKI STUDIO M" MIRA POLJŠAK SIROVINA S.P.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bučka    5A, Bučka, 8276 Bučka</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
+          <t>Majorja Lavriča ulica   12, Ljubljana, 1000 Ljubljana</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>01 5183286</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr">
         <is>
           <t>Več kontaktov v TIS-u</t>
@@ -662,78 +690,90 @@
           <t>info@bizi.si</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mikro enote</t>
+        </is>
+      </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>3. 10. 2020</t>
+          <t>14. 12. 1998</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/3S-3S-ALOJZ-TICAR-S-P/</t>
+          <t>https://www.bizi.si/FRIZERSKI-STUDIO-M-MIRA-POLJSAK-SIROVINA-S-P/</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4WHEEL SERVICE, Klemen Drufovka s.p.</t>
+          <t>"LASNICA" Helena Novak s.p.</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Gramozna pot    7B, Ljubljana, 1000 Ljubljana</t>
+          <t>Ljubljanska cesta   90, Domžale, 1230 Domžale</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>031 245692</t>
+          <t>041 288579</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Več kontaktov v TIS-u</t>
+          <t>http://www.frizerskisalon-mira.si</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>klemend4@gmail.com</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
+          <t>info@frizerskisalon-mira.si</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Mikro enote</t>
+        </is>
+      </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1. 2. 2022</t>
+          <t>1. 1. 2002</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/4WHEEL-SERVICE-KLEMEN-DRUFOVKA-S-P/</t>
+          <t>https://www.bizi.si/LASNICA-HELENA-NOVAK-S-P/</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A - SHINE Andraž Rozman s.p.</t>
+          <t>"MARJANA" MARJANA HOMJAK S.P.</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ulica Frankolovskih žrtev   34, Celje, 3000 Celje</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
+          <t>Trinkova ulica    3, PIRAN - PIRANO, 6330 Piran - Pirano</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>041 818831</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr">
         <is>
           <t>Več kontaktov v TIS-u</t>
@@ -744,37 +784,41 @@
           <t>info@bizi.si</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Velikost RS se ne izračunava</t>
+        </is>
+      </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>22. 4. 2024</t>
+          <t>1. 6. 1994</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/A-SHINE-ANDRAZ-ROZMAN-S-P/</t>
+          <t>https://www.bizi.si/MARJANA-MARJANA-HOMJAK-S-P/</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A&amp;L GARAGE, Klemen Jaušovec s.p.</t>
+          <t>"MOŠKO FRIZERSTVO" ANTON KOMATAR S.P.</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Strjanci    3A, Strjanci, 2273 Podgorci</t>
+          <t>Koliška ulica    1, Vir, 1230 Domžale</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>041 455129</t>
+          <t>01 7211623</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -787,37 +831,41 @@
           <t>info@bizi.si</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Mikro enote</t>
+        </is>
+      </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1. 2. 2024</t>
+          <t>9. 7. 1987</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/A-L-GARAGE-KLEMEN-JAUSOVEC-S-P/</t>
+          <t>https://www.bizi.si/MOSKO-FRIZERSTVO-ANTON-KOMATAR-S-P/</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A&amp;M AUTO DETAILING, Monika Tomašić s.p.</t>
+          <t>"SILVA", d.o.o.</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Milčinskega ulica   14, Celje, 3000 Celje</t>
+          <t>Kranjčeva ulica   12, Moravske Toplice, 9226 Moravske Toplice</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>041 388981</t>
+          <t>041 413671</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -827,40 +875,44 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>info@bizi.si</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
+          <t>anfalov.vladimir@siol.net</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Mikro enote</t>
+        </is>
+      </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1. 5. 2022</t>
+          <t>18. 2. 2011</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/A-M-AUTO-DETAILING-MONIKA-TOMASIC-S-P/</t>
+          <t>https://www.bizi.si/SILVA-D-O-O/</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A-JUSS HITRI SERVIS JASMIN KADIRIĆ S.P.</t>
+          <t>"STUDIO IN", URŠKA PUŠNIK s.p.</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Velika pot   14, Solkan, 5250 Solkan</t>
+          <t>Šentiljska cesta   27, Maribor, 2000 Maribor</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>040 204966</t>
+          <t>02 2526573</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -870,7 +922,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>info@bizi.si</t>
+          <t>urska@studio-in.si</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -880,34 +932,34 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>15. 9. 2017</t>
+          <t>1. 6. 2011</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/A-JUSS-HITRI-SERVIS-JASMIN-KADIRIC-S-P/</t>
+          <t>https://www.bizi.si/STUDIO-IN-URSKA-PUSNIK-S-P/</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A.C.B., d.o.o.</t>
+          <t>"ČESALNICA LAS" - ŽENSKO IN MOŠKO FRIZERSTVO - OLGA NOVAK S.P.</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Ljubljanska ulica   50, Maribor, 2000 Maribor</t>
+          <t>Ziherlova ulica    6, Ljubljana, 1000 Ljubljana</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>041 626767</t>
+          <t>01 4298020</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -927,34 +979,34 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>15. 10. 2013</t>
+          <t>1. 7. 1993</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/A-C-B-D-O-O/</t>
+          <t>https://www.bizi.si/CESALNICA-LAS-ZENSKO-IN-MOSKO-FRIZERSTVO-OLGA-NOVAK-S-P/</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A.D.S., Anja Skaza s.p.</t>
+          <t>"ČESALNICA VENERA" FRIZERSTVO SUZANA PERKO S.P.</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Plintovec   33A, Plintovec, 2201 Zgornja Kungota</t>
+          <t>Ulica XXX. divizije   21, Nova Gorica, 5000 Nova Gorica</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>069 756730</t>
+          <t>05 3027107</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -964,38 +1016,46 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>info.ads.sp@gmail.com</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
+          <t>info@bizi.si</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Mikro enote</t>
+        </is>
+      </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>24. 9. 2024</t>
+          <t>15. 11. 1999</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/A-D-S-ANJA-SKAZA-S-P/</t>
+          <t>https://www.bizi.si/CESALNICA-VENERA-FRIZERSTVO-SUZANA-PERKO-S-P/</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A.G. STAR, GZIM AVDIJA s.p.</t>
+          <t>''PATY'' PATRICIJA STUBELJ S.P.</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Primorska cesta    1, Šoštanj, 3325 Šoštanj</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
+          <t>Bevkov trg    6, Nova Gorica, 5000 Nova Gorica</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>05 3001131</t>
+        </is>
+      </c>
       <c r="D14" t="inlineStr">
         <is>
           <t>Več kontaktov v TIS-u</t>
@@ -1006,32 +1066,36 @@
           <t>info@bizi.si</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Mikro enote</t>
+        </is>
+      </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1. 10. 2023</t>
+          <t>6. 11. 2007</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/A-G-STAR-GZIM-AVDIJA-S-P/</t>
+          <t>https://www.bizi.si/PATY-PATRICIJA-STUBELJ-S-P/</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A1S, Alen Šinko s.p.</t>
+          <t>3S Saša Šuštar s.p.</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Spodnja Ščavnica   20, Spodnja Ščavnica, 9250 Gornja Radgona</t>
+          <t>Mošenik    5, Mošenik, 1282 Sava</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -1048,29 +1112,29 @@
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
-          <t>10. 2. 2025</t>
+          <t>1. 1. 2022</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/A1S-ALEN-SINKO-S-P/</t>
+          <t>https://www.bizi.si/3S-SASA-SUSTAR-S-P/</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>AC BIMMER d.o.o.</t>
+          <t>3TiM d.o.o.</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Ulica borcev za severno mejo   24, Ljubljana, 1000 Ljubljana</t>
+          <t>Krpanova ulica    9, Celje, 3000 Celje</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -1081,38 +1145,46 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>info@ac-bimmer.si</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr"/>
+          <t>studiodeja@gmail.com</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Mikro enote</t>
+        </is>
+      </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2. 12. 2024</t>
+          <t>29. 10. 2018</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/AC-BIMMER-D-O-O/</t>
+          <t>https://www.bizi.si/3TIM-D-O-O_CELJE/</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>AC ELITE Klemen Lahovec s.p.</t>
+          <t>5AR, Petar Marjanac s.p.</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Smoletova ulica    3, Ljubljana, 1000 Ljubljana</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
+          <t>Čečovje    6, Ravne na Koroškem, 2390 Ravne na Koroškem</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>070 161351</t>
+        </is>
+      </c>
       <c r="D17" t="inlineStr">
         <is>
           <t>Več kontaktov v TIS-u</t>
@@ -1120,46 +1192,38 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>info@bizi.si</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Ni podatka o velikosti</t>
-        </is>
-      </c>
+          <t>petar.marjanac@gmail.com</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
-          <t>13. 2. 2019</t>
+          <t>5. 12. 2023</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/AC-ELITE-KLEMEN-LAHOVEC-S-P/</t>
+          <t>https://www.bizi.si/5AR-PETAR-MARJANAC-S-P/</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>AC JUR TEAM d.o.o.</t>
+          <t>726 STUDIO, Nina Marjeta Babnik s.p.</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Srednje Bitnje   66B, Srednje Bitnje, 4209 Žabnica</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>041 773790</t>
-        </is>
-      </c>
+          <t>Dunajska cesta   43, Ljubljana, 1000 Ljubljana</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
           <t>Več kontaktov v TIS-u</t>
@@ -1167,42 +1231,46 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>avto.jur@siol.net</t>
+          <t>info@bizi.si</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Ni podatka o velikosti</t>
+          <t>Mikro enote</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>13. 6. 2023</t>
+          <t>9. 1. 2017</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/AC-JUR-TEAM-D-O-O/</t>
+          <t>https://www.bizi.si/726-STUDIO-NINA-MARJETA-BABNIK-S-P/</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>AC Vreček, Tomaž Vreček s.p.</t>
+          <t>A STUDIO ALEKSANDRA JAMNIK S.P.</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Velesovo   54, Velesovo, 4207 Cerklje na Gorenjskem</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
+          <t>Gregorčičeva ulica    6, Maribor, 2000 Maribor</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>041 581035</t>
+        </is>
+      </c>
       <c r="D19" t="inlineStr">
         <is>
           <t>Več kontaktov v TIS-u</t>
@@ -1210,38 +1278,46 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>info@bizi.si</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr"/>
+          <t>aleksandra.jamnik@gmail.com</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Mikro enote</t>
+        </is>
+      </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>1. 10. 2024</t>
+          <t>23. 1. 2012</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/AC-VRECEK-TOMAZ-VRECEK-S-P/</t>
+          <t>https://www.bizi.si/A-STUDIO-ALEKSANDRA-JAMNIK-S-P/</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ACI, Marko Ivanković s.p.</t>
+          <t>A&amp;M AFERDITA PRESHTRESHI S.P.</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Brilejeva ulica   21, Ljubljana, 1000 Ljubljana</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
+          <t>Ulica Staneta Rozmana   11, Črnomelj, 8340 Črnomelj</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0590 23120</t>
+        </is>
+      </c>
       <c r="D20" t="inlineStr">
         <is>
           <t>Več kontaktov v TIS-u</t>
@@ -1249,35 +1325,39 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ivankovic.marko80@gmail.com</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr"/>
+          <t>info@bizi.si</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Mikro enote</t>
+        </is>
+      </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>1. 2. 2020</t>
+          <t>1. 6. 2018</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/ACI-MARKO-IVANKOVIC-S-P/</t>
+          <t>https://www.bizi.si/A-M-AFERDITA-PRESHTRESHI-S-P/</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ACM AVTO CENTER MARIBOR d.o.o.</t>
+          <t>A-FINS, Anita Bodiroža s.p.</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Jadranska cesta   25, Maribor, 2000 Maribor</t>
+          <t>Ulica Dušana Kvedra   16, Celje, 3000 Celje</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -1288,38 +1368,42 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>avtocentermaribor@gmail.com</t>
+          <t>info@bizi.si</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
-          <t>17. 10. 2022</t>
+          <t>1. 12. 2023</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/ACM-AVTO-CENTER-MARIBOR-D-O-O/</t>
+          <t>https://www.bizi.si/A-FINS-ANITA-BODIROZA-S-P/</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ACV d.o.o.</t>
+          <t>A-LENKA ALENKA TEKAVEC S.P.</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Vojkova cesta   58, Ljubljana, 1000 Ljubljana</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr"/>
+          <t>Cankarjeva cesta    6, Litija, 1270 Litija</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>01 8983424</t>
+        </is>
+      </c>
       <c r="D22" t="inlineStr">
         <is>
           <t>Več kontaktov v TIS-u</t>
@@ -1327,40 +1411,44 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>acv.damir@gmail.com</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr"/>
+          <t>tekavecalenka@gmail.com</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Mikro enote</t>
+        </is>
+      </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>4. 6. 2019</t>
+          <t>1. 10. 2012</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/ACV-D-O-O/</t>
+          <t>https://www.bizi.si/A-LENKA-ALENKA-TEKAVEC-S-P/</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ACŠ, Blaž Švelc, s.p.</t>
+          <t>A. STUDIO IN ANITA TOMAZIN NOVAK S.P.</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Levstikova ulica   12A, Zagorje ob Savi, 1410 Zagorje ob Savi</t>
+          <t>Novomeška cesta   11, Šentjernej, 8310 Šentjernej</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>041 655104</t>
+          <t>051 331665</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1370,40 +1458,44 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>info@bizi.si</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr"/>
+          <t>astudioin@gmail.com</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Mikro enote</t>
+        </is>
+      </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>1. 5. 2024</t>
+          <t>15. 8. 2003</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/ACS-BLAZ-SVELC-S-P/</t>
+          <t>https://www.bizi.si/A-STUDIO-IN-ANITA-TOMAZIN-NOVAK-S-P/</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>AD AVTO d.o.o.</t>
+          <t>A2O, Alenka Aucin s.p.</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Steletova cesta   23A, Kamnik, 1241 Kamnik</t>
+          <t>Pšatnik   24, Ljubljana, 1211 LJUBLJANA ŠMARTNO</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>041 698993</t>
+          <t>040 542824</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1413,42 +1505,38 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>adavto.servis@gmail.com</t>
+          <t>info@bizi.si</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
-          <t>27. 12. 2019</t>
+          <t>18. 4. 2022</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/AD-AVTO-D-O-O_KAMNIK/</t>
+          <t>https://www.bizi.si/A2O-ALENKA-AUCIN-S-P/</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>AD SERVIS, Ahmed Delić s.p.</t>
+          <t>AB - CUTS, Adnan Bahtagić s.p.</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Ruprova ulica   10, Miklavž na Dravskem polju, 2204 Miklavž na Dravskem polju</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>069 631235</t>
-        </is>
-      </c>
+          <t>Pivovarniška ulica    6, Ljubljana, 1000 Ljubljana</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
           <t>Več kontaktov v TIS-u</t>
@@ -1462,36 +1550,32 @@
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
-          <t>1. 5. 2024</t>
+          <t>12. 9. 2023</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/AD-SERVIS-AHMED-DELIC-S-P/</t>
+          <t>https://www.bizi.si/AB-CUTS-ADNAN-BAHTAGIC-S-P/</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ADF Design d.o.o.</t>
+          <t>ABSTRAKT BARBERS, MARK ĆULIBRK S.P.</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Koseskega ulica   63, Maribor, 2000 Maribor</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>041 653246</t>
-        </is>
-      </c>
+          <t>Cesta na Klanec    8L, Kranj, 4000 Kranj</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
           <t>Več kontaktov v TIS-u</t>
@@ -1499,40 +1583,40 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>adfdesign.doo@gmail.com</t>
+          <t>info@bizi.si</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
-          <t>12. 9. 2019</t>
+          <t>25. 4. 2020</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/ADF-DESIGN-D-O-O/</t>
+          <t>https://www.bizi.si/ABSTRAKT-BARBERS-MARK-CULIBRK-S-P/</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ADIS GOLETIĆ s.p.</t>
+          <t>ADELA IBRALIĆ S.P.</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Primostek   39, Primostek, 8332 Gradac</t>
+          <t>Stari trg   35, Velenje, 3320 Velenje</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>051 710592</t>
+          <t>041 228453</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1542,42 +1626,42 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>adisgoletic@gmail.com</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr"/>
+          <t>info@bizi.si</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Mikro enote</t>
+        </is>
+      </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>1. 3. 2024</t>
+          <t>2. 11. 2011</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/ADIS-GOLETIC-S-P/</t>
+          <t>https://www.bizi.si/ADELA-IBRALIC-S-P/</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ADL DAVID LJUBEC s.p.</t>
+          <t>ADI AHMETOVIĆ S.P.</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Stanetinci    8A, Stanetinci, 2236 Cerkvenjak</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>031 555491</t>
-        </is>
-      </c>
+          <t>Breg   28, Celje, 3000 Celje</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
           <t>Več kontaktov v TIS-u</t>
@@ -1591,34 +1675,34 @@
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
-          <t>3. 2. 2024</t>
+          <t>1. 10. 2023</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/ADL-DAVID-LJUBEC-S-P/</t>
+          <t>https://www.bizi.si/ADI-AHMETOVIC-S-P/</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ADS, SAŠO MARKELJ S.P.</t>
+          <t>ADRIANA KUKOL S.P.</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Spodnje Izlake    1, Izlake, 1411 Izlake</t>
+          <t>Cven   87A, Cven, 9240 Ljutomer</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>040 172552</t>
+          <t>031 356247</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1628,38 +1712,46 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>markelj.saso@gmail.com</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr"/>
+          <t>frizerstvo.kukol@gmail.com</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Mikro enote</t>
+        </is>
+      </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>5. 10. 2023</t>
+          <t>13. 2. 2013</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/ADS-SASO-MARKELJ-S-P/</t>
+          <t>https://www.bizi.si/ADRIANA-KUKOL-S-P/</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>AEG Gojkošek d.o.o.</t>
+          <t>ADRIANA SOVIČ s.p.</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Lovrenc na Dravskem polju   32A, Lovrenc na Dravskem polju, 2324 Lovrenc na Dravskem polju</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr"/>
+          <t>Pohorska cesta   17C, Slovenj Gradec, 2380 Slovenj Gradec</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>041 419977</t>
+        </is>
+      </c>
       <c r="D30" t="inlineStr">
         <is>
           <t>Več kontaktov v TIS-u</t>
@@ -1667,40 +1759,44 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>marjan.gojkosek@gmail.com</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr"/>
+          <t>adriana.sovic@gmail.com</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Mikro enote</t>
+        </is>
+      </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>16. 7. 2024</t>
+          <t>28. 6. 2008</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/AEG-GOJKOSEK-D-O-O/</t>
+          <t>https://www.bizi.si/ADRIANA-SOVIC-S-P/</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>AEL, d.o.o., Domžale</t>
+          <t>ADRIJANA GRAGER S.P.</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Zoisova ulica   30, Vir, 1230 Domžale</t>
+          <t>Trstenjakova ulica    5, Ptuj, 2250 Ptuj</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>041 785672</t>
+          <t>041 677972</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1710,7 +1806,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>avtoelektrikasusnik@gmail.com</t>
+          <t>info@bizi.si</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1720,34 +1816,34 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>15. 7. 1997</t>
+          <t>5. 1. 2015</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/AEL-D-O-O-DOMZALE/</t>
+          <t>https://www.bizi.si/ADRIJANA-GRAGER-S-P/</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>AH SERVIS, Armin Hasić s.p.</t>
+          <t>ADRIJANA MEŽNAR S.P.</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Kidričevo naselje    6, Postojna, 6230 Postojna</t>
+          <t>Harije   81, Harije, 6250 Ilirska Bistrica</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>031 448014</t>
+          <t>041 875083</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1760,35 +1856,43 @@
           <t>info@bizi.si</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Mikro enote</t>
+        </is>
+      </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>1. 7. 2020</t>
+          <t>16. 9. 2006</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/AH-SERVIS-ARMIN-HASIC-S-P/</t>
+          <t>https://www.bizi.si/ADRIJANA-MEZNAR-S-P/</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>AHV NAVTIKA d.o.o.</t>
+          <t>ADRIJANA MOŽINA S.P.</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Cesta Osvobodilne fronte   25, Log pri Brezovici, 1358 Log pri Brezovici</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr"/>
+          <t>Gregorčičeva cesta   19, Ilirska Bistrica, 6250 Ilirska Bistrica</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>05 7141609</t>
+        </is>
+      </c>
       <c r="D33" t="inlineStr">
         <is>
           <t>Več kontaktov v TIS-u</t>
@@ -1796,7 +1900,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>janislabanja@gmail.com</t>
+          <t>info@bizi.si</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1806,32 +1910,36 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>13. 9. 2012</t>
+          <t>15. 6. 2004</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/AHV-NAVTIKA-D-O-O/</t>
+          <t>https://www.bizi.si/ADRIJANA-MOZINA-S-P/</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>AJ AVTOKOZMETIKA, Mirzeta Jašarević s.p.</t>
+          <t>ADUT BRIGITA KRAPEŽ S.P.</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Spodnji Plavž   23, Jesenice, 4270 Jesenice</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr"/>
+          <t>Godovič    2A, Godovič, 5275 Godovič</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>031 820448</t>
+        </is>
+      </c>
       <c r="D34" t="inlineStr">
         <is>
           <t>Več kontaktov v TIS-u</t>
@@ -1839,35 +1947,39 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>ajavtokozmetika@gmail.com</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr"/>
+          <t>info@bizi.si</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Mikro enote</t>
+        </is>
+      </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>18. 3. 2025</t>
+          <t>15. 12. 2010</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/AJ-AVTOKOZMETIKA-MIRZETA-JASAREVIC-S-P/</t>
+          <t>https://www.bizi.si/ADUT-BRIGITA-KRAPEZ-S-P/</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>AKC Sport d.o.o.</t>
+          <t>AFNA FRIZERAJ, ANJA KRISTAVČNIK S.P.</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Nasirec   15, Nasirec, 6240 Kozina</t>
+          <t>Lokovica   40A, Lokovica, 3325 Šoštanj</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -1878,42 +1990,42 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>akcsport@gmail.com</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr"/>
+          <t>info@bizi.si</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Mikro enote</t>
+        </is>
+      </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>11. 3. 2025</t>
+          <t>1. 1. 2017</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/AKC-SPORT-D-O-O/</t>
+          <t>https://www.bizi.si/AFNA-FRIZERAJ-ANJA-KRISTAVCNIK-S-P/</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ALADIN DURIĆ S.P.</t>
+          <t>AG Andrejka Gagič s.p.</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Kolodvorska ulica    3, Divača, 6215 Divača</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>070 240788</t>
-        </is>
-      </c>
+          <t>Visoče    4B, Visoče, 3225 Planina pri Sevnici</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
           <t>Več kontaktov v TIS-u</t>
@@ -1924,37 +2036,41 @@
           <t>info@bizi.si</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Mikro enote</t>
+        </is>
+      </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>21. 9. 2021</t>
+          <t>16. 5. 2016</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/ALADIN-DURIC-S-P/</t>
+          <t>https://www.bizi.si/AG-ANDREJKA-GAGIC-S-P/</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ALAN A &amp; A DAVID APOLLONIO S.P.</t>
+          <t>AGICA ATELŠEK S.P.</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Sermin   73A, BERTOKI - BERTOCCHI, 6000 Koper - Capodistria</t>
+          <t>Rečica ob Savinji   95A, Rečica ob Savinji, 3332 Rečica ob Savinji</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>040 648281</t>
+          <t>031 375042</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1964,7 +2080,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>david.apollonio@siol.net</t>
+          <t>info@bizi.si</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1974,29 +2090,29 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>9. 10. 1996</t>
+          <t>19. 8. 2003</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/ALAN-A-A-DAVID-APOLLONIO-S-P/</t>
+          <t>https://www.bizi.si/AGICA-ATELSEK-S-P/</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ALBI d.o.o.</t>
+          <t>AIDA ČORDIĆ S.P.</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Humekova ulica    8, Krško, 8270 Krško</t>
+          <t>Cesta železarjev    4B, Jesenice, 4270 Jesenice</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -2007,38 +2123,46 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>albikrasniqi289@gmail.com</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr"/>
+          <t>info@bizi.si</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Mikro enote</t>
+        </is>
+      </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>5. 4. 2024</t>
+          <t>1. 1. 2013</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/ALBI-D-O-O_KRSKO/</t>
+          <t>https://www.bizi.si/AIDA-CORDIC-S-P/</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ALEKSANDER LUPŠA S. P.</t>
+          <t>AJSELA AGOVIĆ S.P.</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Mladinska ulica   27, ŠENTILJ V SLOVENSKIH GORICAH, 2212 ŠENTILJ V SLOVENSKIH GORICAH</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr"/>
+          <t>Žitna ulica   12, Maribor, 2000 Maribor</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>03 205207</t>
+        </is>
+      </c>
       <c r="D39" t="inlineStr">
         <is>
           <t>Več kontaktov v TIS-u</t>
@@ -2056,44 +2180,44 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>9. 6. 2010</t>
+          <t>7. 5. 2007</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/ALEKSANDER-LUPSA-S-P/</t>
+          <t>https://www.bizi.si/AJSELA-AGOVIC-S-P/</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ALEŠ ALJANČIČ S.P.</t>
+          <t>AKTRIS d.o.o.</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Kovorska cesta    4, Bistrica pri Tržiču, 4290 Tržič</t>
+          <t>Vojkova cesta   77, Ljubljana, 1000 Ljubljana</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>040 835456</t>
+          <t>01 5243611</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Več kontaktov v TIS-u</t>
+          <t>http://www.frizerstvoaktris.com</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>ales.aljancic@gmail.com</t>
+          <t>frizerstvo.aktris@siol.net</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2103,34 +2227,34 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>9. 9. 2004</t>
+          <t>18. 2. 2004</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/ALES-ALJANCIC-S-P/</t>
+          <t>https://www.bizi.si/AKTRIS-D-O-O/</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ALEŠ DAJČMAN, s.p.</t>
+          <t>ALA KATIC S.P.</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Vukovje   41, Vukovje, 2231 Pernica</t>
+          <t>Kolodvorska ulica    1A, Krško, 8270 Krško</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>041 817742</t>
+          <t>070 554006</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2140,46 +2264,38 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>info@bizi.si</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Mikro enote</t>
-        </is>
-      </c>
+          <t>alamirzac.pr@gmail.com</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
-          <t>10. 10. 2013</t>
+          <t>15. 6. 2020</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/ALES-DAJCMAN-S-P/</t>
+          <t>https://www.bizi.si/ALA-KATIC-S-P/</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ALEŠ GODEC S.P.</t>
+          <t>ALE ALE, Aleksandra Marčec s.p.</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Ulica padlih borcev   27, Šempeter pri Gorici, 5290 Šempeter pri Gorici</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>031 605141</t>
-        </is>
-      </c>
+          <t>Miklošičeva ulica    2, Celje, 3000 Celje</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr">
         <is>
           <t>Več kontaktov v TIS-u</t>
@@ -2190,43 +2306,35 @@
           <t>info@bizi.si</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Mikro enote</t>
-        </is>
-      </c>
+      <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
-          <t>8. 1. 2013</t>
+          <t>13. 4. 2023</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/ALES-GODEC-S-P/</t>
+          <t>https://www.bizi.si/ALE-ALE-ALEKSANDRA-MARCEC-S-P/</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ALEŠ JENSTERLE S.P.</t>
+          <t>ALE ALE, Alen Križovnik s.p.</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Jemčeva cesta   28A, Trzin, 1236 Trzin</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>031 645128</t>
-        </is>
-      </c>
+          <t>Miklošičeva ulica    2, Celje, 3000 Celje</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr">
         <is>
           <t>Več kontaktov v TIS-u</t>
@@ -2237,88 +2345,84 @@
           <t>info@bizi.si</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Mikro enote</t>
-        </is>
-      </c>
+      <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
-          <t>21. 9. 2009</t>
+          <t>13. 4. 2023</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/ALES-JENSTERLE-S-P/</t>
+          <t>https://www.bizi.si/ALE-ALE-ALEN-KRIZOVNIK-S-P/</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ALEŠ TRILAR S.P.</t>
+          <t>ALEDANA d.o.o.</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Zasavska cesta   44, Kranj, 4000 Kranj</t>
+          <t>Jamova cesta  105, Ljubljana, 1000 Ljubljana</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>041 749470</t>
+          <t>051 349814</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Več kontaktov v TIS-u</t>
+          <t>http://www.dok.si</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>info@bizi.si</t>
+          <t>mirjana@aledana.si</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Velikost RS se ne izračunava</t>
+          <t>Majhne enote</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>3. 1. 2018</t>
+          <t>3. 12. 2014</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/ALES-TRILAR-S-P_KRANJ_ZASAVSKA-CESTA/</t>
+          <t>https://www.bizi.si/ALEDANA-D-O-O/</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ALEŠ VIDMAR S.P.</t>
+          <t>ALEKS STYLE, Aleks Pavokovič s.p.</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Šukljetova ulica   11, Novo mesto, 8000 Novo mesto</t>
+          <t>Koroška cesta   19, Maribor, 2000 Maribor</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>040 328687</t>
+          <t>070 289800</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2338,44 +2442,44 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>1. 10. 2015</t>
+          <t>1. 1. 2018</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/ALES-VIDMAR-S-P_NOVO-MESTO_SUKLJETOVA-ULICA/</t>
+          <t>https://www.bizi.si/ALEKS-STYLE-ALEKS-PAVOKOVIC-S-P/</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ALJAŽ ŽNIDERŠIČ S.P.</t>
+          <t>ALEKSANDER FENOS S.P.</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Cesta bratov Cerjakov    4, Brežice, 8250 Brežice</t>
+          <t>Mestni trg    4, Ptuj, 2250 Ptuj</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>031 308315</t>
+          <t>02 7723721</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Več kontaktov v TIS-u</t>
+          <t>http://www.hairclub-fenos.si</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>info@bizi.si</t>
+          <t>fenos@siol.net</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2385,34 +2489,34 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>22. 10. 2013</t>
+          <t>23. 5. 1994</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/ALJAZ-ZNIDERSIC-S-P/</t>
+          <t>https://www.bizi.si/ALEKSANDER-FENOS-S-P/</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ALJOŠA KUCLER s.p.</t>
+          <t>ALEKSANDER MRKŠA S.P.</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Drenov Grič   73, Drenov Grič, 1360 Vrhnika</t>
+          <t>Tekačevo    6, Tekačevo, 3250 Rogaška Slatina</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>041 805196</t>
+          <t>041 566320</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2422,42 +2526,46 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>info@bizi.si</t>
+          <t>frizersandi@gmail.com</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Velikost RS se ne izračunava</t>
+          <t>Mikro enote</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>19. 6. 2018</t>
+          <t>27. 5. 1994</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/ALJOSA-KUCLER-S-P/</t>
+          <t>https://www.bizi.si/ALEKSANDER-MRKSA-S-P/</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ALPE-ADRIA PDR d.o.o.</t>
+          <t>ALEKSANDER ORAČ s.p.</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Križ   23C, Križ, 1218 Komenda</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr"/>
+          <t>Rogaška cesta   26, Šmarje pri Jelšah, 3240 Šmarje pri Jelšah</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>0838 22116</t>
+        </is>
+      </c>
       <c r="D48" t="inlineStr">
         <is>
           <t>Več kontaktov v TIS-u</t>
@@ -2465,38 +2573,46 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>darjangantar@gmail.com</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr"/>
+          <t>info@bizi.si</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Mikro enote</t>
+        </is>
+      </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>14. 9. 2022</t>
+          <t>9. 9. 2014</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/ALPE-ADRIA-PDR-D-O-O/</t>
+          <t>https://www.bizi.si/ALEKSANDER-ORAC-S-P/</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>AM, Adam Mesarič, s.p.</t>
+          <t>ALEKSANDER ŠKORJANEC, S.P.</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Murski Črnci   27E, Murski Črnci, 9251 Tišina</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr"/>
+          <t>Beblerjeva ulica    2A, KOPER - CAPODISTRIA, 6000 Koper - Capodistria</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>031 867506</t>
+        </is>
+      </c>
       <c r="D49" t="inlineStr">
         <is>
           <t>Več kontaktov v TIS-u</t>
@@ -2507,35 +2623,43 @@
           <t>info@bizi.si</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr"/>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Mikro enote</t>
+        </is>
+      </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>8. 6. 2022</t>
+          <t>1. 9. 2009</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/AM-ADAM-MESARIC-S-P/</t>
+          <t>https://www.bizi.si/ALEKSANDER-SKORJANEC-S-P/</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>AMD CARS Miloš Dugandžija, s.p.</t>
+          <t>ALEKSANDRA HORVAT s.p.</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Sadinja vas pri Dvoru   30, Sadinja vas pri Dvoru, 8361 Dvor</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr"/>
+          <t>Gregorčičeva ulica    4, PIRAN - PIRANO, 6330 Piran - Pirano</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>031 737500</t>
+        </is>
+      </c>
       <c r="D50" t="inlineStr">
         <is>
           <t>Več kontaktov v TIS-u</t>
@@ -2543,35 +2667,39 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>info@bizi.si</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr"/>
+          <t>aleksandra.h.sasa@gmail.com</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Mikro enote</t>
+        </is>
+      </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>7. 11. 2023</t>
+          <t>1. 11. 2010</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/AMD-CARS-MILOS-DUGANDZIJA-S-P/</t>
+          <t>https://www.bizi.si/ALEKSANDRA-HORVAT-S-P_PIRAN-PIRANO/</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>AMD, Uroš Dermota s.p.</t>
+          <t>ALEKSANDRA MOŽINA S.P.</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Trnoveljska cesta    2, Trnovlje pri Celju, 3000 Celje</t>
+          <t>Ulica Vilka Kledeta    5B, Postojna, 6230 Postojna</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -2587,22 +2715,22 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Mikro enote</t>
+          <t>Velikost RS se ne izračunava</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>4. 5. 2015</t>
+          <t>1. 10. 2004</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/AMD-UROS-DERMOTA-S-P/</t>
+          <t>https://www.bizi.si/ALEKSANDRA-MOZINA-S-P_POSTOJNA/</t>
         </is>
       </c>
     </row>
